--- a/Pregame simulation/selected_features_data_be.xlsx
+++ b/Pregame simulation/selected_features_data_be.xlsx
@@ -1,43 +1,433 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>二氧化硅(SiO2)</t>
+  </si>
+  <si>
+    <t>氧化铝(Al2O3)</t>
+  </si>
+  <si>
+    <t>氧化铜(CuO)</t>
+  </si>
+  <si>
+    <t>氧化钡(BaO)</t>
+  </si>
+  <si>
+    <t>五氧化二磷(P2O5)</t>
+  </si>
+  <si>
+    <t>氧化锶(SrO)</t>
+  </si>
+  <si>
+    <t>二氧化硫(SO2)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="34">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +436,332 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,1189 +1044,1322 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="8" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>二氧化硅(SiO2)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>氧化铝(Al2O3)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>氧化铜(CuO)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>氧化钡(BaO)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>五氧化二磷(P2O5)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>氧化锶(SrO)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>二氧化硫(SO2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>36.28</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>5.73</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.26</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>3.57</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.19</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>20.14</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.34</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>10.41</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>31.23</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>3.59</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.37</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>4.61</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.11</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3.14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>30.62</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>7.56</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.53</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>15.03</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>33.59</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.69</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4.93</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>14.61</v>
       </c>
-      <c r="E5" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>9.38</v>
+      </c>
+      <c r="F5">
         <v>0.37</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>29.64</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>3.57</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3.51</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5.35</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>8.83</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.19</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>37.36</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>5.45</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4.78</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>23.55</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>5.75</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>53.79</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.42</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>2.99</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>11.86</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0.33</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>31.94</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.59</v>
       </c>
-      <c r="C9" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>8.46</v>
+      </c>
+      <c r="D9">
         <v>26.23</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.14</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.91</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>50.61</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.12</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>6.65</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.19</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.2</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>19.79</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.7</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>10.57</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>32.25</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>3.13</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.45</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>3.72</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.18</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3.6</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>35.45</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>6.04</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.62</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>15.95</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>68.08</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>4.7</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.33</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>4.04</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1.04</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.12</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>63.3</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>14.34</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.74</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2.03</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.41</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.25</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
         <v>34.34</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>4.35</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>10.29</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0.35</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
         <v>36.93</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>3.86</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>10.35</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1.41</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.48</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
         <v>65.91</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3.11</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.44</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>3.42</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1.62</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.3</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>69.70999999999999</v>
-      </c>
-      <c r="B18" t="n">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>69.71</v>
+      </c>
+      <c r="B18">
         <v>2.36</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.11</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>4.88</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.17</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>75.51000000000001</v>
-      </c>
-      <c r="B19" t="n">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>75.51</v>
+      </c>
+      <c r="B19">
         <v>2.35</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.47</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>3.55</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.13</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
         <v>35.78</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1.62</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1.51</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>10</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.34</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.22</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
         <v>65.91</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.44</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.16</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>5.68</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.42</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
         <v>39.57</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1.6</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.68</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>10.83</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E22">
+        <v>0.07</v>
+      </c>
+      <c r="F22">
         <v>0.22</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
         <v>60.12</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2.72</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>3.01</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>10.34</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1.46</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.31</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
         <v>32.93</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2.57</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.73</v>
       </c>
-      <c r="D24" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>9.79</v>
+      </c>
+      <c r="E24">
         <v>0.48</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.41</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
         <v>26.25</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.5</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.88</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>7.22</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>1.16</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.61</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
         <v>16.71</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.45</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>6.69</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>1.77</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>0.68</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
         <v>18.46</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>3.33</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.19</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>9.76</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>7.46</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>0.47</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
         <v>51.26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>3.53</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2.67</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>10.47</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>0.08</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>0.35</v>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
         <v>51.33</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>5.66</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2.72</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>10.88</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
         <v>12.41</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2.25</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>5.35</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>7.29</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>0.64</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
         <v>21.7</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>3.41</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.51</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>3.26</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>12.83</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>0.47</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
         <v>60.74</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>12.69</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.43</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>5.22</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>0.26</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
         <v>61.28</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.53</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>10.96</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>0.23</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
         <v>55.21</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>4.79</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.77</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>10.06</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.2</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.43</v>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
         <v>51.54</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>3.06</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.65</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>9.23</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>0.1</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.85</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
         <v>53.33</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>13.65</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>7.31</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>1.1</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.25</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
         <v>28.79</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>5.38</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.7</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>6.1</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>11.1</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.46</v>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
         <v>54.61</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>6.5</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.45</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>4.19</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>4.32</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.3</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
         <v>17.98</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1.87</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.13</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>14.2</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>6.34</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.66</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
         <v>45.02</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>4.16</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.7</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>6.22</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>6.34</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.23</v>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>24.61</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>5.25</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.37</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>8.94</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>8.1</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.39</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
         <v>21.35</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>2.51</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.75</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>8.75</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
         <v>25.74</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1.16</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.7</v>
       </c>
-      <c r="D43" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>8.64</v>
+      </c>
+      <c r="E43">
         <v>5.71</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.44</v>
       </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
         <v>63.66</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>6.06</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.54</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>8.99</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>0.27</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
         <v>22.28</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>4.15</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.83</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>7.04</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>4.24</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.88</v>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
         <v>17.11</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>3.65</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1.34</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>14.13</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>1.12</v>
       </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
         <v>49.01</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.45</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.86</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>7.95</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>0.35</v>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
         <v>29.15</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.85</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.79</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>15.45</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>2.54</v>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
         <v>25.42</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2.18</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1.16</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>17.3</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
         <v>30.39</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>3.52</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>3.13</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>7.66</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>8.99</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>0.24</v>
       </c>
-      <c r="G50" t="n">
-        <v>0</v>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>